--- a/biology/Médecine/Mads_Gilbert/Mads_Gilbert.xlsx
+++ b/biology/Médecine/Mads_Gilbert/Mads_Gilbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mads Fredrik Gilbert, né le 2 juin 1947 à Porsgrunn, est un médecin et homme politique norvégien du parti socialiste « rouge ». Il est spécialiste en anesthésiologie et chef du département de médecine d'urgence du centre hospitalier universitaire North Norway ; il est aussi professeur de médecine d'urgence à l'Université de Tromsø depuis 1995.
 Gilbert a eu des expériences internationales variées, en particulier dans des endroits du monde connaissant le cumul de crises politiques et médicales. Il a travaillé activement à des œuvres de solidarité à l'égard des palestiniens depuis les années 1970. Il a servi comme médecin durant plusieurs périodes en Palestine et au Liban. Ses efforts ont valu à sa ville de Tromsø, jumelée avec Gaza, de décrocher le record de la ville ayant envoyé le plus de bénévoles médicaux en Palestine.[réf. nécessaire]
@@ -513,7 +525,9 @@
           <t>Carrière en médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1976, il a travaillé principalement dans le département d'anesthésiologie à l'hopital de Tromsø, l'établissement hospitalo-universitaire du nord de la Norvège. Il  a aussi travaillé à l'hopital Gravdal de Lofoten.
 </t>
